--- a/Employee_Reports35/Alvin Tumboc Cuevas Q0545.xlsx
+++ b/Employee_Reports35/Alvin Tumboc Cuevas Q0545.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,8 +461,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="56" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="61" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1229,17 +1229,17 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Equipment  Request &amp;handover procedure(SOP-028) (SOPs)</t>
+          <t>LOTO (SOPs)</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>CARGO</t>
+          <t>ELECTRICAL SAFETY</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-028</t>
+          <t>LSME-OHS-SOP-021</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -1249,20 +1249,20 @@
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>21-Oct-2025</t>
+          <t>19-Oct-2025</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>21-Oct-2026</t>
+          <t>19-Oct-2026</t>
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1278,28 +1278,41 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Endangered by Electricity A safety Training (SOPs)</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr"/>
-      <c r="D18" s="3" t="inlineStr"/>
-      <c r="E18" s="3" t="inlineStr"/>
+          <t>Equipment Operation Procedure
+(SOP-031) (SOPs)</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-031</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>21-Oct-2025</t>
+          <t>21-Sep-2025</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>21-Oct-2026</t>
+          <t>21-Sep-2026</t>
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1315,28 +1328,40 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr"/>
-      <c r="D19" s="3" t="inlineStr"/>
-      <c r="E19" s="3" t="inlineStr"/>
+          <t>Equipment  Request &amp;handover procedure(SOP-028) (SOPs)</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-028</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>18-Mar-2025</t>
+          <t>21-Oct-2025</t>
         </is>
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t>18-Mar-2026</t>
+          <t>21-Oct-2026</t>
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>135</v>
+        <v>351</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1352,7 +1377,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>IS0 55001 (Other Trainings)</t>
+          <t>Endangered by Electricity A safety Training (SOPs)</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -1360,28 +1385,372 @@
       <c r="E20" s="3" t="inlineStr"/>
       <c r="F20" s="3" t="inlineStr">
         <is>
+          <t>21-Oct-2025</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>21-Oct-2026</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>351</v>
+      </c>
+      <c r="I20" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K20" s="3" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr"/>
+      <c r="D21" s="3" t="inlineStr"/>
+      <c r="E21" s="3" t="inlineStr"/>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>18-Mar-2025</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>18-Mar-2026</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>134</v>
+      </c>
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K21" s="3" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Replacement of Stacker Crane Fork Flyer Chain (SOPs)</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-010</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>27-Jul-2025</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>27-Jul-2026</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>265</v>
+      </c>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Replacement of Stacker Crane Wire Rope (SOPs)</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-001</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>27-Jul-2025</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>27-Jul-2026</t>
+        </is>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>265</v>
+      </c>
+      <c r="I23" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J23" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K23" s="3" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>SOP for Non Powered Roller Deck And ULD Aisle (SOPs)</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr"/>
+      <c r="D24" s="3" t="inlineStr"/>
+      <c r="E24" s="3" t="inlineStr"/>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>01-Oct-2025</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>01-Oct-2026</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>331</v>
+      </c>
+      <c r="I24" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K24" s="3" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Replacing Bearings Of ULD Hoist Counterweight Pulley (SOPs)</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-011</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>14-Sep-2025</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>14-Sep-2026</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>314</v>
+      </c>
+      <c r="I25" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K25" s="3" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>Overload and Load Testing Procedure In ULD Hoist (SOPs)</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-018</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>14-Sep-2025</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>14-Sep-2026</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>314</v>
+      </c>
+      <c r="I26" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K26" s="3" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>ULD Hoist Drve Motor Replacement (SOPs)</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr"/>
+      <c r="D27" s="3" t="inlineStr"/>
+      <c r="E27" s="3" t="inlineStr"/>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>31-Aug-2025</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="inlineStr">
+        <is>
+          <t>31-Aug-2026</t>
+        </is>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="I27" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K27" s="3" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>IS0 55001 (Other Trainings)</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr"/>
+      <c r="D28" s="3" t="inlineStr"/>
+      <c r="E28" s="3" t="inlineStr"/>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
           <t>01-Jul-2025</t>
         </is>
       </c>
-      <c r="G20" s="3" t="inlineStr">
+      <c r="G28" s="3" t="inlineStr">
         <is>
           <t>01-Jul-2027</t>
         </is>
       </c>
-      <c r="H20" s="3" t="n">
-        <v>605</v>
-      </c>
-      <c r="I20" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J20" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K20" s="3" t="inlineStr"/>
+      <c r="H28" s="3" t="n">
+        <v>604</v>
+      </c>
+      <c r="I28" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K28" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Employee_Reports35/Alvin Tumboc Cuevas Q0545.xlsx
+++ b/Employee_Reports35/Alvin Tumboc Cuevas Q0545.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1308,11 +1308,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1357,11 +1357,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1394,11 +1394,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1431,11 +1431,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1480,11 +1480,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1529,11 +1529,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1566,11 +1566,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1615,11 +1615,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1664,11 +1664,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1701,11 +1701,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1738,11 +1738,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
